--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/CuttingTable/Cutting Table.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/CuttingTable/Cutting Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Data For Cutting Table Add/Edit(Update)</t>
   </si>
@@ -27,18 +27,6 @@
     <t>Edit/Update Data</t>
   </si>
   <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
-    <t>Large Format Guillotine Add</t>
-  </si>
-  <si>
-    <t>Form Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillotine Add </t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>Maximum Sheet Weight (GSM)</t>
   </si>
   <si>
-    <t>35.12</t>
-  </si>
-  <si>
     <t>135.12</t>
   </si>
   <si>
@@ -120,38 +105,44 @@
     <t>Cost Per Cut ($)</t>
   </si>
   <si>
-    <t>1.02</t>
-  </si>
-  <si>
     <t>12.35</t>
   </si>
   <si>
     <t>Minimum Running charge ($)</t>
   </si>
   <si>
-    <t>3.23</t>
-  </si>
-  <si>
     <t>4.26</t>
   </si>
   <si>
     <t>Markup (%)</t>
   </si>
   <si>
-    <t>123.25</t>
-  </si>
-  <si>
     <t>6.25</t>
   </si>
   <si>
     <t xml:space="preserve">Plant Calculation </t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>1.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,24 +163,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="30"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="12"/>
@@ -200,6 +173,13 @@
       <b/>
       <sz val="10"/>
       <color indexed="17"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -254,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -266,16 +246,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,18 +546,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="60.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,209 +573,179 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="26.25">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
       <c r="B4" s="5"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="C5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14" t="s">
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="13" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="12" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="13" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="11" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="12" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12">
-        <v>7</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="E16" s="9">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" sqref="C18 IY18 SU18 ACQ18 AMM18 AWI18 BGE18 BQA18 BZW18 CJS18 CTO18 DDK18 DNG18 DXC18 EGY18 EQU18 FAQ18 FKM18 FUI18 GEE18 GOA18 GXW18 HHS18 HRO18 IBK18 ILG18 IVC18 JEY18 JOU18 JYQ18 KIM18 KSI18 LCE18 LMA18 LVW18 MFS18 MPO18 MZK18 NJG18 NTC18 OCY18 OMU18 OWQ18 PGM18 PQI18 QAE18 QKA18 QTW18 RDS18 RNO18 RXK18 SHG18 SRC18 TAY18 TKU18 TUQ18 UEM18 UOI18 UYE18 VIA18 VRW18 WBS18 WLO18 WVK18 C65554 IY65554 SU65554 ACQ65554 AMM65554 AWI65554 BGE65554 BQA65554 BZW65554 CJS65554 CTO65554 DDK65554 DNG65554 DXC65554 EGY65554 EQU65554 FAQ65554 FKM65554 FUI65554 GEE65554 GOA65554 GXW65554 HHS65554 HRO65554 IBK65554 ILG65554 IVC65554 JEY65554 JOU65554 JYQ65554 KIM65554 KSI65554 LCE65554 LMA65554 LVW65554 MFS65554 MPO65554 MZK65554 NJG65554 NTC65554 OCY65554 OMU65554 OWQ65554 PGM65554 PQI65554 QAE65554 QKA65554 QTW65554 RDS65554 RNO65554 RXK65554 SHG65554 SRC65554 TAY65554 TKU65554 TUQ65554 UEM65554 UOI65554 UYE65554 VIA65554 VRW65554 WBS65554 WLO65554 WVK65554 C131090 IY131090 SU131090 ACQ131090 AMM131090 AWI131090 BGE131090 BQA131090 BZW131090 CJS131090 CTO131090 DDK131090 DNG131090 DXC131090 EGY131090 EQU131090 FAQ131090 FKM131090 FUI131090 GEE131090 GOA131090 GXW131090 HHS131090 HRO131090 IBK131090 ILG131090 IVC131090 JEY131090 JOU131090 JYQ131090 KIM131090 KSI131090 LCE131090 LMA131090 LVW131090 MFS131090 MPO131090 MZK131090 NJG131090 NTC131090 OCY131090 OMU131090 OWQ131090 PGM131090 PQI131090 QAE131090 QKA131090 QTW131090 RDS131090 RNO131090 RXK131090 SHG131090 SRC131090 TAY131090 TKU131090 TUQ131090 UEM131090 UOI131090 UYE131090 VIA131090 VRW131090 WBS131090 WLO131090 WVK131090 C196626 IY196626 SU196626 ACQ196626 AMM196626 AWI196626 BGE196626 BQA196626 BZW196626 CJS196626 CTO196626 DDK196626 DNG196626 DXC196626 EGY196626 EQU196626 FAQ196626 FKM196626 FUI196626 GEE196626 GOA196626 GXW196626 HHS196626 HRO196626 IBK196626 ILG196626 IVC196626 JEY196626 JOU196626 JYQ196626 KIM196626 KSI196626 LCE196626 LMA196626 LVW196626 MFS196626 MPO196626 MZK196626 NJG196626 NTC196626 OCY196626 OMU196626 OWQ196626 PGM196626 PQI196626 QAE196626 QKA196626 QTW196626 RDS196626 RNO196626 RXK196626 SHG196626 SRC196626 TAY196626 TKU196626 TUQ196626 UEM196626 UOI196626 UYE196626 VIA196626 VRW196626 WBS196626 WLO196626 WVK196626 C262162 IY262162 SU262162 ACQ262162 AMM262162 AWI262162 BGE262162 BQA262162 BZW262162 CJS262162 CTO262162 DDK262162 DNG262162 DXC262162 EGY262162 EQU262162 FAQ262162 FKM262162 FUI262162 GEE262162 GOA262162 GXW262162 HHS262162 HRO262162 IBK262162 ILG262162 IVC262162 JEY262162 JOU262162 JYQ262162 KIM262162 KSI262162 LCE262162 LMA262162 LVW262162 MFS262162 MPO262162 MZK262162 NJG262162 NTC262162 OCY262162 OMU262162 OWQ262162 PGM262162 PQI262162 QAE262162 QKA262162 QTW262162 RDS262162 RNO262162 RXK262162 SHG262162 SRC262162 TAY262162 TKU262162 TUQ262162 UEM262162 UOI262162 UYE262162 VIA262162 VRW262162 WBS262162 WLO262162 WVK262162 C327698 IY327698 SU327698 ACQ327698 AMM327698 AWI327698 BGE327698 BQA327698 BZW327698 CJS327698 CTO327698 DDK327698 DNG327698 DXC327698 EGY327698 EQU327698 FAQ327698 FKM327698 FUI327698 GEE327698 GOA327698 GXW327698 HHS327698 HRO327698 IBK327698 ILG327698 IVC327698 JEY327698 JOU327698 JYQ327698 KIM327698 KSI327698 LCE327698 LMA327698 LVW327698 MFS327698 MPO327698 MZK327698 NJG327698 NTC327698 OCY327698 OMU327698 OWQ327698 PGM327698 PQI327698 QAE327698 QKA327698 QTW327698 RDS327698 RNO327698 RXK327698 SHG327698 SRC327698 TAY327698 TKU327698 TUQ327698 UEM327698 UOI327698 UYE327698 VIA327698 VRW327698 WBS327698 WLO327698 WVK327698 C393234 IY393234 SU393234 ACQ393234 AMM393234 AWI393234 BGE393234 BQA393234 BZW393234 CJS393234 CTO393234 DDK393234 DNG393234 DXC393234 EGY393234 EQU393234 FAQ393234 FKM393234 FUI393234 GEE393234 GOA393234 GXW393234 HHS393234 HRO393234 IBK393234 ILG393234 IVC393234 JEY393234 JOU393234 JYQ393234 KIM393234 KSI393234 LCE393234 LMA393234 LVW393234 MFS393234 MPO393234 MZK393234 NJG393234 NTC393234 OCY393234 OMU393234 OWQ393234 PGM393234 PQI393234 QAE393234 QKA393234 QTW393234 RDS393234 RNO393234 RXK393234 SHG393234 SRC393234 TAY393234 TKU393234 TUQ393234 UEM393234 UOI393234 UYE393234 VIA393234 VRW393234 WBS393234 WLO393234 WVK393234 C458770 IY458770 SU458770 ACQ458770 AMM458770 AWI458770 BGE458770 BQA458770 BZW458770 CJS458770 CTO458770 DDK458770 DNG458770 DXC458770 EGY458770 EQU458770 FAQ458770 FKM458770 FUI458770 GEE458770 GOA458770 GXW458770 HHS458770 HRO458770 IBK458770 ILG458770 IVC458770 JEY458770 JOU458770 JYQ458770 KIM458770 KSI458770 LCE458770 LMA458770 LVW458770 MFS458770 MPO458770 MZK458770 NJG458770 NTC458770 OCY458770 OMU458770 OWQ458770 PGM458770 PQI458770 QAE458770 QKA458770 QTW458770 RDS458770 RNO458770 RXK458770 SHG458770 SRC458770 TAY458770 TKU458770 TUQ458770 UEM458770 UOI458770 UYE458770 VIA458770 VRW458770 WBS458770 WLO458770 WVK458770 C524306 IY524306 SU524306 ACQ524306 AMM524306 AWI524306 BGE524306 BQA524306 BZW524306 CJS524306 CTO524306 DDK524306 DNG524306 DXC524306 EGY524306 EQU524306 FAQ524306 FKM524306 FUI524306 GEE524306 GOA524306 GXW524306 HHS524306 HRO524306 IBK524306 ILG524306 IVC524306 JEY524306 JOU524306 JYQ524306 KIM524306 KSI524306 LCE524306 LMA524306 LVW524306 MFS524306 MPO524306 MZK524306 NJG524306 NTC524306 OCY524306 OMU524306 OWQ524306 PGM524306 PQI524306 QAE524306 QKA524306 QTW524306 RDS524306 RNO524306 RXK524306 SHG524306 SRC524306 TAY524306 TKU524306 TUQ524306 UEM524306 UOI524306 UYE524306 VIA524306 VRW524306 WBS524306 WLO524306 WVK524306 C589842 IY589842 SU589842 ACQ589842 AMM589842 AWI589842 BGE589842 BQA589842 BZW589842 CJS589842 CTO589842 DDK589842 DNG589842 DXC589842 EGY589842 EQU589842 FAQ589842 FKM589842 FUI589842 GEE589842 GOA589842 GXW589842 HHS589842 HRO589842 IBK589842 ILG589842 IVC589842 JEY589842 JOU589842 JYQ589842 KIM589842 KSI589842 LCE589842 LMA589842 LVW589842 MFS589842 MPO589842 MZK589842 NJG589842 NTC589842 OCY589842 OMU589842 OWQ589842 PGM589842 PQI589842 QAE589842 QKA589842 QTW589842 RDS589842 RNO589842 RXK589842 SHG589842 SRC589842 TAY589842 TKU589842 TUQ589842 UEM589842 UOI589842 UYE589842 VIA589842 VRW589842 WBS589842 WLO589842 WVK589842 C655378 IY655378 SU655378 ACQ655378 AMM655378 AWI655378 BGE655378 BQA655378 BZW655378 CJS655378 CTO655378 DDK655378 DNG655378 DXC655378 EGY655378 EQU655378 FAQ655378 FKM655378 FUI655378 GEE655378 GOA655378 GXW655378 HHS655378 HRO655378 IBK655378 ILG655378 IVC655378 JEY655378 JOU655378 JYQ655378 KIM655378 KSI655378 LCE655378 LMA655378 LVW655378 MFS655378 MPO655378 MZK655378 NJG655378 NTC655378 OCY655378 OMU655378 OWQ655378 PGM655378 PQI655378 QAE655378 QKA655378 QTW655378 RDS655378 RNO655378 RXK655378 SHG655378 SRC655378 TAY655378 TKU655378 TUQ655378 UEM655378 UOI655378 UYE655378 VIA655378 VRW655378 WBS655378 WLO655378 WVK655378 C720914 IY720914 SU720914 ACQ720914 AMM720914 AWI720914 BGE720914 BQA720914 BZW720914 CJS720914 CTO720914 DDK720914 DNG720914 DXC720914 EGY720914 EQU720914 FAQ720914 FKM720914 FUI720914 GEE720914 GOA720914 GXW720914 HHS720914 HRO720914 IBK720914 ILG720914 IVC720914 JEY720914 JOU720914 JYQ720914 KIM720914 KSI720914 LCE720914 LMA720914 LVW720914 MFS720914 MPO720914 MZK720914 NJG720914 NTC720914 OCY720914 OMU720914 OWQ720914 PGM720914 PQI720914 QAE720914 QKA720914 QTW720914 RDS720914 RNO720914 RXK720914 SHG720914 SRC720914 TAY720914 TKU720914 TUQ720914 UEM720914 UOI720914 UYE720914 VIA720914 VRW720914 WBS720914 WLO720914 WVK720914 C786450 IY786450 SU786450 ACQ786450 AMM786450 AWI786450 BGE786450 BQA786450 BZW786450 CJS786450 CTO786450 DDK786450 DNG786450 DXC786450 EGY786450 EQU786450 FAQ786450 FKM786450 FUI786450 GEE786450 GOA786450 GXW786450 HHS786450 HRO786450 IBK786450 ILG786450 IVC786450 JEY786450 JOU786450 JYQ786450 KIM786450 KSI786450 LCE786450 LMA786450 LVW786450 MFS786450 MPO786450 MZK786450 NJG786450 NTC786450 OCY786450 OMU786450 OWQ786450 PGM786450 PQI786450 QAE786450 QKA786450 QTW786450 RDS786450 RNO786450 RXK786450 SHG786450 SRC786450 TAY786450 TKU786450 TUQ786450 UEM786450 UOI786450 UYE786450 VIA786450 VRW786450 WBS786450 WLO786450 WVK786450 C851986 IY851986 SU851986 ACQ851986 AMM851986 AWI851986 BGE851986 BQA851986 BZW851986 CJS851986 CTO851986 DDK851986 DNG851986 DXC851986 EGY851986 EQU851986 FAQ851986 FKM851986 FUI851986 GEE851986 GOA851986 GXW851986 HHS851986 HRO851986 IBK851986 ILG851986 IVC851986 JEY851986 JOU851986 JYQ851986 KIM851986 KSI851986 LCE851986 LMA851986 LVW851986 MFS851986 MPO851986 MZK851986 NJG851986 NTC851986 OCY851986 OMU851986 OWQ851986 PGM851986 PQI851986 QAE851986 QKA851986 QTW851986 RDS851986 RNO851986 RXK851986 SHG851986 SRC851986 TAY851986 TKU851986 TUQ851986 UEM851986 UOI851986 UYE851986 VIA851986 VRW851986 WBS851986 WLO851986 WVK851986 C917522 IY917522 SU917522 ACQ917522 AMM917522 AWI917522 BGE917522 BQA917522 BZW917522 CJS917522 CTO917522 DDK917522 DNG917522 DXC917522 EGY917522 EQU917522 FAQ917522 FKM917522 FUI917522 GEE917522 GOA917522 GXW917522 HHS917522 HRO917522 IBK917522 ILG917522 IVC917522 JEY917522 JOU917522 JYQ917522 KIM917522 KSI917522 LCE917522 LMA917522 LVW917522 MFS917522 MPO917522 MZK917522 NJG917522 NTC917522 OCY917522 OMU917522 OWQ917522 PGM917522 PQI917522 QAE917522 QKA917522 QTW917522 RDS917522 RNO917522 RXK917522 SHG917522 SRC917522 TAY917522 TKU917522 TUQ917522 UEM917522 UOI917522 UYE917522 VIA917522 VRW917522 WBS917522 WLO917522 WVK917522 C983058 IY983058 SU983058 ACQ983058 AMM983058 AWI983058 BGE983058 BQA983058 BZW983058 CJS983058 CTO983058 DDK983058 DNG983058 DXC983058 EGY983058 EQU983058 FAQ983058 FKM983058 FUI983058 GEE983058 GOA983058 GXW983058 HHS983058 HRO983058 IBK983058 ILG983058 IVC983058 JEY983058 JOU983058 JYQ983058 KIM983058 KSI983058 LCE983058 LMA983058 LVW983058 MFS983058 MPO983058 MZK983058 NJG983058 NTC983058 OCY983058 OMU983058 OWQ983058 PGM983058 PQI983058 QAE983058 QKA983058 QTW983058 RDS983058 RNO983058 RXK983058 SHG983058 SRC983058 TAY983058 TKU983058 TUQ983058 UEM983058 UOI983058 UYE983058 VIA983058 VRW983058 WBS983058 WLO983058 WVK983058 E18 JA18 SW18 ACS18 AMO18 AWK18 BGG18 BQC18 BZY18 CJU18 CTQ18 DDM18 DNI18 DXE18 EHA18 EQW18 FAS18 FKO18 FUK18 GEG18 GOC18 GXY18 HHU18 HRQ18 IBM18 ILI18 IVE18 JFA18 JOW18 JYS18 KIO18 KSK18 LCG18 LMC18 LVY18 MFU18 MPQ18 MZM18 NJI18 NTE18 ODA18 OMW18 OWS18 PGO18 PQK18 QAG18 QKC18 QTY18 RDU18 RNQ18 RXM18 SHI18 SRE18 TBA18 TKW18 TUS18 UEO18 UOK18 UYG18 VIC18 VRY18 WBU18 WLQ18 WVM18 E65554 JA65554 SW65554 ACS65554 AMO65554 AWK65554 BGG65554 BQC65554 BZY65554 CJU65554 CTQ65554 DDM65554 DNI65554 DXE65554 EHA65554 EQW65554 FAS65554 FKO65554 FUK65554 GEG65554 GOC65554 GXY65554 HHU65554 HRQ65554 IBM65554 ILI65554 IVE65554 JFA65554 JOW65554 JYS65554 KIO65554 KSK65554 LCG65554 LMC65554 LVY65554 MFU65554 MPQ65554 MZM65554 NJI65554 NTE65554 ODA65554 OMW65554 OWS65554 PGO65554 PQK65554 QAG65554 QKC65554 QTY65554 RDU65554 RNQ65554 RXM65554 SHI65554 SRE65554 TBA65554 TKW65554 TUS65554 UEO65554 UOK65554 UYG65554 VIC65554 VRY65554 WBU65554 WLQ65554 WVM65554 E131090 JA131090 SW131090 ACS131090 AMO131090 AWK131090 BGG131090 BQC131090 BZY131090 CJU131090 CTQ131090 DDM131090 DNI131090 DXE131090 EHA131090 EQW131090 FAS131090 FKO131090 FUK131090 GEG131090 GOC131090 GXY131090 HHU131090 HRQ131090 IBM131090 ILI131090 IVE131090 JFA131090 JOW131090 JYS131090 KIO131090 KSK131090 LCG131090 LMC131090 LVY131090 MFU131090 MPQ131090 MZM131090 NJI131090 NTE131090 ODA131090 OMW131090 OWS131090 PGO131090 PQK131090 QAG131090 QKC131090 QTY131090 RDU131090 RNQ131090 RXM131090 SHI131090 SRE131090 TBA131090 TKW131090 TUS131090 UEO131090 UOK131090 UYG131090 VIC131090 VRY131090 WBU131090 WLQ131090 WVM131090 E196626 JA196626 SW196626 ACS196626 AMO196626 AWK196626 BGG196626 BQC196626 BZY196626 CJU196626 CTQ196626 DDM196626 DNI196626 DXE196626 EHA196626 EQW196626 FAS196626 FKO196626 FUK196626 GEG196626 GOC196626 GXY196626 HHU196626 HRQ196626 IBM196626 ILI196626 IVE196626 JFA196626 JOW196626 JYS196626 KIO196626 KSK196626 LCG196626 LMC196626 LVY196626 MFU196626 MPQ196626 MZM196626 NJI196626 NTE196626 ODA196626 OMW196626 OWS196626 PGO196626 PQK196626 QAG196626 QKC196626 QTY196626 RDU196626 RNQ196626 RXM196626 SHI196626 SRE196626 TBA196626 TKW196626 TUS196626 UEO196626 UOK196626 UYG196626 VIC196626 VRY196626 WBU196626 WLQ196626 WVM196626 E262162 JA262162 SW262162 ACS262162 AMO262162 AWK262162 BGG262162 BQC262162 BZY262162 CJU262162 CTQ262162 DDM262162 DNI262162 DXE262162 EHA262162 EQW262162 FAS262162 FKO262162 FUK262162 GEG262162 GOC262162 GXY262162 HHU262162 HRQ262162 IBM262162 ILI262162 IVE262162 JFA262162 JOW262162 JYS262162 KIO262162 KSK262162 LCG262162 LMC262162 LVY262162 MFU262162 MPQ262162 MZM262162 NJI262162 NTE262162 ODA262162 OMW262162 OWS262162 PGO262162 PQK262162 QAG262162 QKC262162 QTY262162 RDU262162 RNQ262162 RXM262162 SHI262162 SRE262162 TBA262162 TKW262162 TUS262162 UEO262162 UOK262162 UYG262162 VIC262162 VRY262162 WBU262162 WLQ262162 WVM262162 E327698 JA327698 SW327698 ACS327698 AMO327698 AWK327698 BGG327698 BQC327698 BZY327698 CJU327698 CTQ327698 DDM327698 DNI327698 DXE327698 EHA327698 EQW327698 FAS327698 FKO327698 FUK327698 GEG327698 GOC327698 GXY327698 HHU327698 HRQ327698 IBM327698 ILI327698 IVE327698 JFA327698 JOW327698 JYS327698 KIO327698 KSK327698 LCG327698 LMC327698 LVY327698 MFU327698 MPQ327698 MZM327698 NJI327698 NTE327698 ODA327698 OMW327698 OWS327698 PGO327698 PQK327698 QAG327698 QKC327698 QTY327698 RDU327698 RNQ327698 RXM327698 SHI327698 SRE327698 TBA327698 TKW327698 TUS327698 UEO327698 UOK327698 UYG327698 VIC327698 VRY327698 WBU327698 WLQ327698 WVM327698 E393234 JA393234 SW393234 ACS393234 AMO393234 AWK393234 BGG393234 BQC393234 BZY393234 CJU393234 CTQ393234 DDM393234 DNI393234 DXE393234 EHA393234 EQW393234 FAS393234 FKO393234 FUK393234 GEG393234 GOC393234 GXY393234 HHU393234 HRQ393234 IBM393234 ILI393234 IVE393234 JFA393234 JOW393234 JYS393234 KIO393234 KSK393234 LCG393234 LMC393234 LVY393234 MFU393234 MPQ393234 MZM393234 NJI393234 NTE393234 ODA393234 OMW393234 OWS393234 PGO393234 PQK393234 QAG393234 QKC393234 QTY393234 RDU393234 RNQ393234 RXM393234 SHI393234 SRE393234 TBA393234 TKW393234 TUS393234 UEO393234 UOK393234 UYG393234 VIC393234 VRY393234 WBU393234 WLQ393234 WVM393234 E458770 JA458770 SW458770 ACS458770 AMO458770 AWK458770 BGG458770 BQC458770 BZY458770 CJU458770 CTQ458770 DDM458770 DNI458770 DXE458770 EHA458770 EQW458770 FAS458770 FKO458770 FUK458770 GEG458770 GOC458770 GXY458770 HHU458770 HRQ458770 IBM458770 ILI458770 IVE458770 JFA458770 JOW458770 JYS458770 KIO458770 KSK458770 LCG458770 LMC458770 LVY458770 MFU458770 MPQ458770 MZM458770 NJI458770 NTE458770 ODA458770 OMW458770 OWS458770 PGO458770 PQK458770 QAG458770 QKC458770 QTY458770 RDU458770 RNQ458770 RXM458770 SHI458770 SRE458770 TBA458770 TKW458770 TUS458770 UEO458770 UOK458770 UYG458770 VIC458770 VRY458770 WBU458770 WLQ458770 WVM458770 E524306 JA524306 SW524306 ACS524306 AMO524306 AWK524306 BGG524306 BQC524306 BZY524306 CJU524306 CTQ524306 DDM524306 DNI524306 DXE524306 EHA524306 EQW524306 FAS524306 FKO524306 FUK524306 GEG524306 GOC524306 GXY524306 HHU524306 HRQ524306 IBM524306 ILI524306 IVE524306 JFA524306 JOW524306 JYS524306 KIO524306 KSK524306 LCG524306 LMC524306 LVY524306 MFU524306 MPQ524306 MZM524306 NJI524306 NTE524306 ODA524306 OMW524306 OWS524306 PGO524306 PQK524306 QAG524306 QKC524306 QTY524306 RDU524306 RNQ524306 RXM524306 SHI524306 SRE524306 TBA524306 TKW524306 TUS524306 UEO524306 UOK524306 UYG524306 VIC524306 VRY524306 WBU524306 WLQ524306 WVM524306 E589842 JA589842 SW589842 ACS589842 AMO589842 AWK589842 BGG589842 BQC589842 BZY589842 CJU589842 CTQ589842 DDM589842 DNI589842 DXE589842 EHA589842 EQW589842 FAS589842 FKO589842 FUK589842 GEG589842 GOC589842 GXY589842 HHU589842 HRQ589842 IBM589842 ILI589842 IVE589842 JFA589842 JOW589842 JYS589842 KIO589842 KSK589842 LCG589842 LMC589842 LVY589842 MFU589842 MPQ589842 MZM589842 NJI589842 NTE589842 ODA589842 OMW589842 OWS589842 PGO589842 PQK589842 QAG589842 QKC589842 QTY589842 RDU589842 RNQ589842 RXM589842 SHI589842 SRE589842 TBA589842 TKW589842 TUS589842 UEO589842 UOK589842 UYG589842 VIC589842 VRY589842 WBU589842 WLQ589842 WVM589842 E655378 JA655378 SW655378 ACS655378 AMO655378 AWK655378 BGG655378 BQC655378 BZY655378 CJU655378 CTQ655378 DDM655378 DNI655378 DXE655378 EHA655378 EQW655378 FAS655378 FKO655378 FUK655378 GEG655378 GOC655378 GXY655378 HHU655378 HRQ655378 IBM655378 ILI655378 IVE655378 JFA655378 JOW655378 JYS655378 KIO655378 KSK655378 LCG655378 LMC655378 LVY655378 MFU655378 MPQ655378 MZM655378 NJI655378 NTE655378 ODA655378 OMW655378 OWS655378 PGO655378 PQK655378 QAG655378 QKC655378 QTY655378 RDU655378 RNQ655378 RXM655378 SHI655378 SRE655378 TBA655378 TKW655378 TUS655378 UEO655378 UOK655378 UYG655378 VIC655378 VRY655378 WBU655378 WLQ655378 WVM655378 E720914 JA720914 SW720914 ACS720914 AMO720914 AWK720914 BGG720914 BQC720914 BZY720914 CJU720914 CTQ720914 DDM720914 DNI720914 DXE720914 EHA720914 EQW720914 FAS720914 FKO720914 FUK720914 GEG720914 GOC720914 GXY720914 HHU720914 HRQ720914 IBM720914 ILI720914 IVE720914 JFA720914 JOW720914 JYS720914 KIO720914 KSK720914 LCG720914 LMC720914 LVY720914 MFU720914 MPQ720914 MZM720914 NJI720914 NTE720914 ODA720914 OMW720914 OWS720914 PGO720914 PQK720914 QAG720914 QKC720914 QTY720914 RDU720914 RNQ720914 RXM720914 SHI720914 SRE720914 TBA720914 TKW720914 TUS720914 UEO720914 UOK720914 UYG720914 VIC720914 VRY720914 WBU720914 WLQ720914 WVM720914 E786450 JA786450 SW786450 ACS786450 AMO786450 AWK786450 BGG786450 BQC786450 BZY786450 CJU786450 CTQ786450 DDM786450 DNI786450 DXE786450 EHA786450 EQW786450 FAS786450 FKO786450 FUK786450 GEG786450 GOC786450 GXY786450 HHU786450 HRQ786450 IBM786450 ILI786450 IVE786450 JFA786450 JOW786450 JYS786450 KIO786450 KSK786450 LCG786450 LMC786450 LVY786450 MFU786450 MPQ786450 MZM786450 NJI786450 NTE786450 ODA786450 OMW786450 OWS786450 PGO786450 PQK786450 QAG786450 QKC786450 QTY786450 RDU786450 RNQ786450 RXM786450 SHI786450 SRE786450 TBA786450 TKW786450 TUS786450 UEO786450 UOK786450 UYG786450 VIC786450 VRY786450 WBU786450 WLQ786450 WVM786450 E851986 JA851986 SW851986 ACS851986 AMO851986 AWK851986 BGG851986 BQC851986 BZY851986 CJU851986 CTQ851986 DDM851986 DNI851986 DXE851986 EHA851986 EQW851986 FAS851986 FKO851986 FUK851986 GEG851986 GOC851986 GXY851986 HHU851986 HRQ851986 IBM851986 ILI851986 IVE851986 JFA851986 JOW851986 JYS851986 KIO851986 KSK851986 LCG851986 LMC851986 LVY851986 MFU851986 MPQ851986 MZM851986 NJI851986 NTE851986 ODA851986 OMW851986 OWS851986 PGO851986 PQK851986 QAG851986 QKC851986 QTY851986 RDU851986 RNQ851986 RXM851986 SHI851986 SRE851986 TBA851986 TKW851986 TUS851986 UEO851986 UOK851986 UYG851986 VIC851986 VRY851986 WBU851986 WLQ851986 WVM851986 E917522 JA917522 SW917522 ACS917522 AMO917522 AWK917522 BGG917522 BQC917522 BZY917522 CJU917522 CTQ917522 DDM917522 DNI917522 DXE917522 EHA917522 EQW917522 FAS917522 FKO917522 FUK917522 GEG917522 GOC917522 GXY917522 HHU917522 HRQ917522 IBM917522 ILI917522 IVE917522 JFA917522 JOW917522 JYS917522 KIO917522 KSK917522 LCG917522 LMC917522 LVY917522 MFU917522 MPQ917522 MZM917522 NJI917522 NTE917522 ODA917522 OMW917522 OWS917522 PGO917522 PQK917522 QAG917522 QKC917522 QTY917522 RDU917522 RNQ917522 RXM917522 SHI917522 SRE917522 TBA917522 TKW917522 TUS917522 UEO917522 UOK917522 UYG917522 VIC917522 VRY917522 WBU917522 WLQ917522 WVM917522 E983058 JA983058 SW983058 ACS983058 AMO983058 AWK983058 BGG983058 BQC983058 BZY983058 CJU983058 CTQ983058 DDM983058 DNI983058 DXE983058 EHA983058 EQW983058 FAS983058 FKO983058 FUK983058 GEG983058 GOC983058 GXY983058 HHU983058 HRQ983058 IBM983058 ILI983058 IVE983058 JFA983058 JOW983058 JYS983058 KIO983058 KSK983058 LCG983058 LMC983058 LVY983058 MFU983058 MPQ983058 MZM983058 NJI983058 NTE983058 ODA983058 OMW983058 OWS983058 PGO983058 PQK983058 QAG983058 QKC983058 QTY983058 RDU983058 RNQ983058 RXM983058 SHI983058 SRE983058 TBA983058 TKW983058 TUS983058 UEO983058 UOK983058 UYG983058 VIC983058 VRY983058 WBU983058 WLQ983058 WVM983058">
+    <dataValidation type="list" operator="equal" sqref="C16 E16 IY18 SU18 ACQ18 AMM18 AWI18 BGE18 BQA18 BZW18 CJS18 CTO18 DDK18 DNG18 DXC18 EGY18 EQU18 FAQ18 FKM18 FUI18 GEE18 GOA18 GXW18 HHS18 HRO18 IBK18 ILG18 IVC18 JEY18 JOU18 JYQ18 KIM18 KSI18 LCE18 LMA18 LVW18 MFS18 MPO18 MZK18 NJG18 NTC18 OCY18 OMU18 OWQ18 PGM18 PQI18 QAE18 QKA18 QTW18 RDS18 RNO18 RXK18 SHG18 SRC18 TAY18 TKU18 TUQ18 UEM18 UOI18 UYE18 VIA18 VRW18 WBS18 WLO18 WVK18 IY65554 SU65554 ACQ65554 AMM65554 AWI65554 BGE65554 BQA65554 BZW65554 CJS65554 CTO65554 DDK65554 DNG65554 DXC65554 EGY65554 EQU65554 FAQ65554 FKM65554 FUI65554 GEE65554 GOA65554 GXW65554 HHS65554 HRO65554 IBK65554 ILG65554 IVC65554 JEY65554 JOU65554 JYQ65554 KIM65554 KSI65554 LCE65554 LMA65554 LVW65554 MFS65554 MPO65554 MZK65554 NJG65554 NTC65554 OCY65554 OMU65554 OWQ65554 PGM65554 PQI65554 QAE65554 QKA65554 QTW65554 RDS65554 RNO65554 RXK65554 SHG65554 SRC65554 TAY65554 TKU65554 TUQ65554 UEM65554 UOI65554 UYE65554 VIA65554 VRW65554 WBS65554 WLO65554 WVK65554 IY131090 SU131090 ACQ131090 AMM131090 AWI131090 BGE131090 BQA131090 BZW131090 CJS131090 CTO131090 DDK131090 DNG131090 DXC131090 EGY131090 EQU131090 FAQ131090 FKM131090 FUI131090 GEE131090 GOA131090 GXW131090 HHS131090 HRO131090 IBK131090 ILG131090 IVC131090 JEY131090 JOU131090 JYQ131090 KIM131090 KSI131090 LCE131090 LMA131090 LVW131090 MFS131090 MPO131090 MZK131090 NJG131090 NTC131090 OCY131090 OMU131090 OWQ131090 PGM131090 PQI131090 QAE131090 QKA131090 QTW131090 RDS131090 RNO131090 RXK131090 SHG131090 SRC131090 TAY131090 TKU131090 TUQ131090 UEM131090 UOI131090 UYE131090 VIA131090 VRW131090 WBS131090 WLO131090 WVK131090 IY196626 SU196626 ACQ196626 AMM196626 AWI196626 BGE196626 BQA196626 BZW196626 CJS196626 CTO196626 DDK196626 DNG196626 DXC196626 EGY196626 EQU196626 FAQ196626 FKM196626 FUI196626 GEE196626 GOA196626 GXW196626 HHS196626 HRO196626 IBK196626 ILG196626 IVC196626 JEY196626 JOU196626 JYQ196626 KIM196626 KSI196626 LCE196626 LMA196626 LVW196626 MFS196626 MPO196626 MZK196626 NJG196626 NTC196626 OCY196626 OMU196626 OWQ196626 PGM196626 PQI196626 QAE196626 QKA196626 QTW196626 RDS196626 RNO196626 RXK196626 SHG196626 SRC196626 TAY196626 TKU196626 TUQ196626 UEM196626 UOI196626 UYE196626 VIA196626 VRW196626 WBS196626 WLO196626 WVK196626 IY262162 SU262162 ACQ262162 AMM262162 AWI262162 BGE262162 BQA262162 BZW262162 CJS262162 CTO262162 DDK262162 DNG262162 DXC262162 EGY262162 EQU262162 FAQ262162 FKM262162 FUI262162 GEE262162 GOA262162 GXW262162 HHS262162 HRO262162 IBK262162 ILG262162 IVC262162 JEY262162 JOU262162 JYQ262162 KIM262162 KSI262162 LCE262162 LMA262162 LVW262162 MFS262162 MPO262162 MZK262162 NJG262162 NTC262162 OCY262162 OMU262162 OWQ262162 PGM262162 PQI262162 QAE262162 QKA262162 QTW262162 RDS262162 RNO262162 RXK262162 SHG262162 SRC262162 TAY262162 TKU262162 TUQ262162 UEM262162 UOI262162 UYE262162 VIA262162 VRW262162 WBS262162 WLO262162 WVK262162 IY327698 SU327698 ACQ327698 AMM327698 AWI327698 BGE327698 BQA327698 BZW327698 CJS327698 CTO327698 DDK327698 DNG327698 DXC327698 EGY327698 EQU327698 FAQ327698 FKM327698 FUI327698 GEE327698 GOA327698 GXW327698 HHS327698 HRO327698 IBK327698 ILG327698 IVC327698 JEY327698 JOU327698 JYQ327698 KIM327698 KSI327698 LCE327698 LMA327698 LVW327698 MFS327698 MPO327698 MZK327698 NJG327698 NTC327698 OCY327698 OMU327698 OWQ327698 PGM327698 PQI327698 QAE327698 QKA327698 QTW327698 RDS327698 RNO327698 RXK327698 SHG327698 SRC327698 TAY327698 TKU327698 TUQ327698 UEM327698 UOI327698 UYE327698 VIA327698 VRW327698 WBS327698 WLO327698 WVK327698 IY393234 SU393234 ACQ393234 AMM393234 AWI393234 BGE393234 BQA393234 BZW393234 CJS393234 CTO393234 DDK393234 DNG393234 DXC393234 EGY393234 EQU393234 FAQ393234 FKM393234 FUI393234 GEE393234 GOA393234 GXW393234 HHS393234 HRO393234 IBK393234 ILG393234 IVC393234 JEY393234 JOU393234 JYQ393234 KIM393234 KSI393234 LCE393234 LMA393234 LVW393234 MFS393234 MPO393234 MZK393234 NJG393234 NTC393234 OCY393234 OMU393234 OWQ393234 PGM393234 PQI393234 QAE393234 QKA393234 QTW393234 RDS393234 RNO393234 RXK393234 SHG393234 SRC393234 TAY393234 TKU393234 TUQ393234 UEM393234 UOI393234 UYE393234 VIA393234 VRW393234 WBS393234 WLO393234 WVK393234 IY458770 SU458770 ACQ458770 AMM458770 AWI458770 BGE458770 BQA458770 BZW458770 CJS458770 CTO458770 DDK458770 DNG458770 DXC458770 EGY458770 EQU458770 FAQ458770 FKM458770 FUI458770 GEE458770 GOA458770 GXW458770 HHS458770 HRO458770 IBK458770 ILG458770 IVC458770 JEY458770 JOU458770 JYQ458770 KIM458770 KSI458770 LCE458770 LMA458770 LVW458770 MFS458770 MPO458770 MZK458770 NJG458770 NTC458770 OCY458770 OMU458770 OWQ458770 PGM458770 PQI458770 QAE458770 QKA458770 QTW458770 RDS458770 RNO458770 RXK458770 SHG458770 SRC458770 TAY458770 TKU458770 TUQ458770 UEM458770 UOI458770 UYE458770 VIA458770 VRW458770 WBS458770 WLO458770 WVK458770 IY524306 SU524306 ACQ524306 AMM524306 AWI524306 BGE524306 BQA524306 BZW524306 CJS524306 CTO524306 DDK524306 DNG524306 DXC524306 EGY524306 EQU524306 FAQ524306 FKM524306 FUI524306 GEE524306 GOA524306 GXW524306 HHS524306 HRO524306 IBK524306 ILG524306 IVC524306 JEY524306 JOU524306 JYQ524306 KIM524306 KSI524306 LCE524306 LMA524306 LVW524306 MFS524306 MPO524306 MZK524306 NJG524306 NTC524306 OCY524306 OMU524306 OWQ524306 PGM524306 PQI524306 QAE524306 QKA524306 QTW524306 RDS524306 RNO524306 RXK524306 SHG524306 SRC524306 TAY524306 TKU524306 TUQ524306 UEM524306 UOI524306 UYE524306 VIA524306 VRW524306 WBS524306 WLO524306 WVK524306 IY589842 SU589842 ACQ589842 AMM589842 AWI589842 BGE589842 BQA589842 BZW589842 CJS589842 CTO589842 DDK589842 DNG589842 DXC589842 EGY589842 EQU589842 FAQ589842 FKM589842 FUI589842 GEE589842 GOA589842 GXW589842 HHS589842 HRO589842 IBK589842 ILG589842 IVC589842 JEY589842 JOU589842 JYQ589842 KIM589842 KSI589842 LCE589842 LMA589842 LVW589842 MFS589842 MPO589842 MZK589842 NJG589842 NTC589842 OCY589842 OMU589842 OWQ589842 PGM589842 PQI589842 QAE589842 QKA589842 QTW589842 RDS589842 RNO589842 RXK589842 SHG589842 SRC589842 TAY589842 TKU589842 TUQ589842 UEM589842 UOI589842 UYE589842 VIA589842 VRW589842 WBS589842 WLO589842 WVK589842 IY655378 SU655378 ACQ655378 AMM655378 AWI655378 BGE655378 BQA655378 BZW655378 CJS655378 CTO655378 DDK655378 DNG655378 DXC655378 EGY655378 EQU655378 FAQ655378 FKM655378 FUI655378 GEE655378 GOA655378 GXW655378 HHS655378 HRO655378 IBK655378 ILG655378 IVC655378 JEY655378 JOU655378 JYQ655378 KIM655378 KSI655378 LCE655378 LMA655378 LVW655378 MFS655378 MPO655378 MZK655378 NJG655378 NTC655378 OCY655378 OMU655378 OWQ655378 PGM655378 PQI655378 QAE655378 QKA655378 QTW655378 RDS655378 RNO655378 RXK655378 SHG655378 SRC655378 TAY655378 TKU655378 TUQ655378 UEM655378 UOI655378 UYE655378 VIA655378 VRW655378 WBS655378 WLO655378 WVK655378 IY720914 SU720914 ACQ720914 AMM720914 AWI720914 BGE720914 BQA720914 BZW720914 CJS720914 CTO720914 DDK720914 DNG720914 DXC720914 EGY720914 EQU720914 FAQ720914 FKM720914 FUI720914 GEE720914 GOA720914 GXW720914 HHS720914 HRO720914 IBK720914 ILG720914 IVC720914 JEY720914 JOU720914 JYQ720914 KIM720914 KSI720914 LCE720914 LMA720914 LVW720914 MFS720914 MPO720914 MZK720914 NJG720914 NTC720914 OCY720914 OMU720914 OWQ720914 PGM720914 PQI720914 QAE720914 QKA720914 QTW720914 RDS720914 RNO720914 RXK720914 SHG720914 SRC720914 TAY720914 TKU720914 TUQ720914 UEM720914 UOI720914 UYE720914 VIA720914 VRW720914 WBS720914 WLO720914 WVK720914 IY786450 SU786450 ACQ786450 AMM786450 AWI786450 BGE786450 BQA786450 BZW786450 CJS786450 CTO786450 DDK786450 DNG786450 DXC786450 EGY786450 EQU786450 FAQ786450 FKM786450 FUI786450 GEE786450 GOA786450 GXW786450 HHS786450 HRO786450 IBK786450 ILG786450 IVC786450 JEY786450 JOU786450 JYQ786450 KIM786450 KSI786450 LCE786450 LMA786450 LVW786450 MFS786450 MPO786450 MZK786450 NJG786450 NTC786450 OCY786450 OMU786450 OWQ786450 PGM786450 PQI786450 QAE786450 QKA786450 QTW786450 RDS786450 RNO786450 RXK786450 SHG786450 SRC786450 TAY786450 TKU786450 TUQ786450 UEM786450 UOI786450 UYE786450 VIA786450 VRW786450 WBS786450 WLO786450 WVK786450 IY851986 SU851986 ACQ851986 AMM851986 AWI851986 BGE851986 BQA851986 BZW851986 CJS851986 CTO851986 DDK851986 DNG851986 DXC851986 EGY851986 EQU851986 FAQ851986 FKM851986 FUI851986 GEE851986 GOA851986 GXW851986 HHS851986 HRO851986 IBK851986 ILG851986 IVC851986 JEY851986 JOU851986 JYQ851986 KIM851986 KSI851986 LCE851986 LMA851986 LVW851986 MFS851986 MPO851986 MZK851986 NJG851986 NTC851986 OCY851986 OMU851986 OWQ851986 PGM851986 PQI851986 QAE851986 QKA851986 QTW851986 RDS851986 RNO851986 RXK851986 SHG851986 SRC851986 TAY851986 TKU851986 TUQ851986 UEM851986 UOI851986 UYE851986 VIA851986 VRW851986 WBS851986 WLO851986 WVK851986 IY917522 SU917522 ACQ917522 AMM917522 AWI917522 BGE917522 BQA917522 BZW917522 CJS917522 CTO917522 DDK917522 DNG917522 DXC917522 EGY917522 EQU917522 FAQ917522 FKM917522 FUI917522 GEE917522 GOA917522 GXW917522 HHS917522 HRO917522 IBK917522 ILG917522 IVC917522 JEY917522 JOU917522 JYQ917522 KIM917522 KSI917522 LCE917522 LMA917522 LVW917522 MFS917522 MPO917522 MZK917522 NJG917522 NTC917522 OCY917522 OMU917522 OWQ917522 PGM917522 PQI917522 QAE917522 QKA917522 QTW917522 RDS917522 RNO917522 RXK917522 SHG917522 SRC917522 TAY917522 TKU917522 TUQ917522 UEM917522 UOI917522 UYE917522 VIA917522 VRW917522 WBS917522 WLO917522 WVK917522 IY983058 SU983058 ACQ983058 AMM983058 AWI983058 BGE983058 BQA983058 BZW983058 CJS983058 CTO983058 DDK983058 DNG983058 DXC983058 EGY983058 EQU983058 FAQ983058 FKM983058 FUI983058 GEE983058 GOA983058 GXW983058 HHS983058 HRO983058 IBK983058 ILG983058 IVC983058 JEY983058 JOU983058 JYQ983058 KIM983058 KSI983058 LCE983058 LMA983058 LVW983058 MFS983058 MPO983058 MZK983058 NJG983058 NTC983058 OCY983058 OMU983058 OWQ983058 PGM983058 PQI983058 QAE983058 QKA983058 QTW983058 RDS983058 RNO983058 RXK983058 SHG983058 SRC983058 TAY983058 TKU983058 TUQ983058 UEM983058 UOI983058 UYE983058 VIA983058 VRW983058 WBS983058 WLO983058 WVK983058 JA18 SW18 ACS18 AMO18 AWK18 BGG18 BQC18 BZY18 CJU18 CTQ18 DDM18 DNI18 DXE18 EHA18 EQW18 FAS18 FKO18 FUK18 GEG18 GOC18 GXY18 HHU18 HRQ18 IBM18 ILI18 IVE18 JFA18 JOW18 JYS18 KIO18 KSK18 LCG18 LMC18 LVY18 MFU18 MPQ18 MZM18 NJI18 NTE18 ODA18 OMW18 OWS18 PGO18 PQK18 QAG18 QKC18 QTY18 RDU18 RNQ18 RXM18 SHI18 SRE18 TBA18 TKW18 TUS18 UEO18 UOK18 UYG18 VIC18 VRY18 WBU18 WLQ18 WVM18 JA65554 SW65554 ACS65554 AMO65554 AWK65554 BGG65554 BQC65554 BZY65554 CJU65554 CTQ65554 DDM65554 DNI65554 DXE65554 EHA65554 EQW65554 FAS65554 FKO65554 FUK65554 GEG65554 GOC65554 GXY65554 HHU65554 HRQ65554 IBM65554 ILI65554 IVE65554 JFA65554 JOW65554 JYS65554 KIO65554 KSK65554 LCG65554 LMC65554 LVY65554 MFU65554 MPQ65554 MZM65554 NJI65554 NTE65554 ODA65554 OMW65554 OWS65554 PGO65554 PQK65554 QAG65554 QKC65554 QTY65554 RDU65554 RNQ65554 RXM65554 SHI65554 SRE65554 TBA65554 TKW65554 TUS65554 UEO65554 UOK65554 UYG65554 VIC65554 VRY65554 WBU65554 WLQ65554 WVM65554 JA131090 SW131090 ACS131090 AMO131090 AWK131090 BGG131090 BQC131090 BZY131090 CJU131090 CTQ131090 DDM131090 DNI131090 DXE131090 EHA131090 EQW131090 FAS131090 FKO131090 FUK131090 GEG131090 GOC131090 GXY131090 HHU131090 HRQ131090 IBM131090 ILI131090 IVE131090 JFA131090 JOW131090 JYS131090 KIO131090 KSK131090 LCG131090 LMC131090 LVY131090 MFU131090 MPQ131090 MZM131090 NJI131090 NTE131090 ODA131090 OMW131090 OWS131090 PGO131090 PQK131090 QAG131090 QKC131090 QTY131090 RDU131090 RNQ131090 RXM131090 SHI131090 SRE131090 TBA131090 TKW131090 TUS131090 UEO131090 UOK131090 UYG131090 VIC131090 VRY131090 WBU131090 WLQ131090 WVM131090 JA196626 SW196626 ACS196626 AMO196626 AWK196626 BGG196626 BQC196626 BZY196626 CJU196626 CTQ196626 DDM196626 DNI196626 DXE196626 EHA196626 EQW196626 FAS196626 FKO196626 FUK196626 GEG196626 GOC196626 GXY196626 HHU196626 HRQ196626 IBM196626 ILI196626 IVE196626 JFA196626 JOW196626 JYS196626 KIO196626 KSK196626 LCG196626 LMC196626 LVY196626 MFU196626 MPQ196626 MZM196626 NJI196626 NTE196626 ODA196626 OMW196626 OWS196626 PGO196626 PQK196626 QAG196626 QKC196626 QTY196626 RDU196626 RNQ196626 RXM196626 SHI196626 SRE196626 TBA196626 TKW196626 TUS196626 UEO196626 UOK196626 UYG196626 VIC196626 VRY196626 WBU196626 WLQ196626 WVM196626 JA262162 SW262162 ACS262162 AMO262162 AWK262162 BGG262162 BQC262162 BZY262162 CJU262162 CTQ262162 DDM262162 DNI262162 DXE262162 EHA262162 EQW262162 FAS262162 FKO262162 FUK262162 GEG262162 GOC262162 GXY262162 HHU262162 HRQ262162 IBM262162 ILI262162 IVE262162 JFA262162 JOW262162 JYS262162 KIO262162 KSK262162 LCG262162 LMC262162 LVY262162 MFU262162 MPQ262162 MZM262162 NJI262162 NTE262162 ODA262162 OMW262162 OWS262162 PGO262162 PQK262162 QAG262162 QKC262162 QTY262162 RDU262162 RNQ262162 RXM262162 SHI262162 SRE262162 TBA262162 TKW262162 TUS262162 UEO262162 UOK262162 UYG262162 VIC262162 VRY262162 WBU262162 WLQ262162 WVM262162 JA327698 SW327698 ACS327698 AMO327698 AWK327698 BGG327698 BQC327698 BZY327698 CJU327698 CTQ327698 DDM327698 DNI327698 DXE327698 EHA327698 EQW327698 FAS327698 FKO327698 FUK327698 GEG327698 GOC327698 GXY327698 HHU327698 HRQ327698 IBM327698 ILI327698 IVE327698 JFA327698 JOW327698 JYS327698 KIO327698 KSK327698 LCG327698 LMC327698 LVY327698 MFU327698 MPQ327698 MZM327698 NJI327698 NTE327698 ODA327698 OMW327698 OWS327698 PGO327698 PQK327698 QAG327698 QKC327698 QTY327698 RDU327698 RNQ327698 RXM327698 SHI327698 SRE327698 TBA327698 TKW327698 TUS327698 UEO327698 UOK327698 UYG327698 VIC327698 VRY327698 WBU327698 WLQ327698 WVM327698 JA393234 SW393234 ACS393234 AMO393234 AWK393234 BGG393234 BQC393234 BZY393234 CJU393234 CTQ393234 DDM393234 DNI393234 DXE393234 EHA393234 EQW393234 FAS393234 FKO393234 FUK393234 GEG393234 GOC393234 GXY393234 HHU393234 HRQ393234 IBM393234 ILI393234 IVE393234 JFA393234 JOW393234 JYS393234 KIO393234 KSK393234 LCG393234 LMC393234 LVY393234 MFU393234 MPQ393234 MZM393234 NJI393234 NTE393234 ODA393234 OMW393234 OWS393234 PGO393234 PQK393234 QAG393234 QKC393234 QTY393234 RDU393234 RNQ393234 RXM393234 SHI393234 SRE393234 TBA393234 TKW393234 TUS393234 UEO393234 UOK393234 UYG393234 VIC393234 VRY393234 WBU393234 WLQ393234 WVM393234 JA458770 SW458770 ACS458770 AMO458770 AWK458770 BGG458770 BQC458770 BZY458770 CJU458770 CTQ458770 DDM458770 DNI458770 DXE458770 EHA458770 EQW458770 FAS458770 FKO458770 FUK458770 GEG458770 GOC458770 GXY458770 HHU458770 HRQ458770 IBM458770 ILI458770 IVE458770 JFA458770 JOW458770 JYS458770 KIO458770 KSK458770 LCG458770 LMC458770 LVY458770 MFU458770 MPQ458770 MZM458770 NJI458770 NTE458770 ODA458770 OMW458770 OWS458770 PGO458770 PQK458770 QAG458770 QKC458770 QTY458770 RDU458770 RNQ458770 RXM458770 SHI458770 SRE458770 TBA458770 TKW458770 TUS458770 UEO458770 UOK458770 UYG458770 VIC458770 VRY458770 WBU458770 WLQ458770 WVM458770 JA524306 SW524306 ACS524306 AMO524306 AWK524306 BGG524306 BQC524306 BZY524306 CJU524306 CTQ524306 DDM524306 DNI524306 DXE524306 EHA524306 EQW524306 FAS524306 FKO524306 FUK524306 GEG524306 GOC524306 GXY524306 HHU524306 HRQ524306 IBM524306 ILI524306 IVE524306 JFA524306 JOW524306 JYS524306 KIO524306 KSK524306 LCG524306 LMC524306 LVY524306 MFU524306 MPQ524306 MZM524306 NJI524306 NTE524306 ODA524306 OMW524306 OWS524306 PGO524306 PQK524306 QAG524306 QKC524306 QTY524306 RDU524306 RNQ524306 RXM524306 SHI524306 SRE524306 TBA524306 TKW524306 TUS524306 UEO524306 UOK524306 UYG524306 VIC524306 VRY524306 WBU524306 WLQ524306 WVM524306 JA589842 SW589842 ACS589842 AMO589842 AWK589842 BGG589842 BQC589842 BZY589842 CJU589842 CTQ589842 DDM589842 DNI589842 DXE589842 EHA589842 EQW589842 FAS589842 FKO589842 FUK589842 GEG589842 GOC589842 GXY589842 HHU589842 HRQ589842 IBM589842 ILI589842 IVE589842 JFA589842 JOW589842 JYS589842 KIO589842 KSK589842 LCG589842 LMC589842 LVY589842 MFU589842 MPQ589842 MZM589842 NJI589842 NTE589842 ODA589842 OMW589842 OWS589842 PGO589842 PQK589842 QAG589842 QKC589842 QTY589842 RDU589842 RNQ589842 RXM589842 SHI589842 SRE589842 TBA589842 TKW589842 TUS589842 UEO589842 UOK589842 UYG589842 VIC589842 VRY589842 WBU589842 WLQ589842 WVM589842 JA655378 SW655378 ACS655378 AMO655378 AWK655378 BGG655378 BQC655378 BZY655378 CJU655378 CTQ655378 DDM655378 DNI655378 DXE655378 EHA655378 EQW655378 FAS655378 FKO655378 FUK655378 GEG655378 GOC655378 GXY655378 HHU655378 HRQ655378 IBM655378 ILI655378 IVE655378 JFA655378 JOW655378 JYS655378 KIO655378 KSK655378 LCG655378 LMC655378 LVY655378 MFU655378 MPQ655378 MZM655378 NJI655378 NTE655378 ODA655378 OMW655378 OWS655378 PGO655378 PQK655378 QAG655378 QKC655378 QTY655378 RDU655378 RNQ655378 RXM655378 SHI655378 SRE655378 TBA655378 TKW655378 TUS655378 UEO655378 UOK655378 UYG655378 VIC655378 VRY655378 WBU655378 WLQ655378 WVM655378 JA720914 SW720914 ACS720914 AMO720914 AWK720914 BGG720914 BQC720914 BZY720914 CJU720914 CTQ720914 DDM720914 DNI720914 DXE720914 EHA720914 EQW720914 FAS720914 FKO720914 FUK720914 GEG720914 GOC720914 GXY720914 HHU720914 HRQ720914 IBM720914 ILI720914 IVE720914 JFA720914 JOW720914 JYS720914 KIO720914 KSK720914 LCG720914 LMC720914 LVY720914 MFU720914 MPQ720914 MZM720914 NJI720914 NTE720914 ODA720914 OMW720914 OWS720914 PGO720914 PQK720914 QAG720914 QKC720914 QTY720914 RDU720914 RNQ720914 RXM720914 SHI720914 SRE720914 TBA720914 TKW720914 TUS720914 UEO720914 UOK720914 UYG720914 VIC720914 VRY720914 WBU720914 WLQ720914 WVM720914 JA786450 SW786450 ACS786450 AMO786450 AWK786450 BGG786450 BQC786450 BZY786450 CJU786450 CTQ786450 DDM786450 DNI786450 DXE786450 EHA786450 EQW786450 FAS786450 FKO786450 FUK786450 GEG786450 GOC786450 GXY786450 HHU786450 HRQ786450 IBM786450 ILI786450 IVE786450 JFA786450 JOW786450 JYS786450 KIO786450 KSK786450 LCG786450 LMC786450 LVY786450 MFU786450 MPQ786450 MZM786450 NJI786450 NTE786450 ODA786450 OMW786450 OWS786450 PGO786450 PQK786450 QAG786450 QKC786450 QTY786450 RDU786450 RNQ786450 RXM786450 SHI786450 SRE786450 TBA786450 TKW786450 TUS786450 UEO786450 UOK786450 UYG786450 VIC786450 VRY786450 WBU786450 WLQ786450 WVM786450 JA851986 SW851986 ACS851986 AMO851986 AWK851986 BGG851986 BQC851986 BZY851986 CJU851986 CTQ851986 DDM851986 DNI851986 DXE851986 EHA851986 EQW851986 FAS851986 FKO851986 FUK851986 GEG851986 GOC851986 GXY851986 HHU851986 HRQ851986 IBM851986 ILI851986 IVE851986 JFA851986 JOW851986 JYS851986 KIO851986 KSK851986 LCG851986 LMC851986 LVY851986 MFU851986 MPQ851986 MZM851986 NJI851986 NTE851986 ODA851986 OMW851986 OWS851986 PGO851986 PQK851986 QAG851986 QKC851986 QTY851986 RDU851986 RNQ851986 RXM851986 SHI851986 SRE851986 TBA851986 TKW851986 TUS851986 UEO851986 UOK851986 UYG851986 VIC851986 VRY851986 WBU851986 WLQ851986 WVM851986 JA917522 SW917522 ACS917522 AMO917522 AWK917522 BGG917522 BQC917522 BZY917522 CJU917522 CTQ917522 DDM917522 DNI917522 DXE917522 EHA917522 EQW917522 FAS917522 FKO917522 FUK917522 GEG917522 GOC917522 GXY917522 HHU917522 HRQ917522 IBM917522 ILI917522 IVE917522 JFA917522 JOW917522 JYS917522 KIO917522 KSK917522 LCG917522 LMC917522 LVY917522 MFU917522 MPQ917522 MZM917522 NJI917522 NTE917522 ODA917522 OMW917522 OWS917522 PGO917522 PQK917522 QAG917522 QKC917522 QTY917522 RDU917522 RNQ917522 RXM917522 SHI917522 SRE917522 TBA917522 TKW917522 TUS917522 UEO917522 UOK917522 UYG917522 VIC917522 VRY917522 WBU917522 WLQ917522 WVM917522 JA983058 SW983058 ACS983058 AMO983058 AWK983058 BGG983058 BQC983058 BZY983058 CJU983058 CTQ983058 DDM983058 DNI983058 DXE983058 EHA983058 EQW983058 FAS983058 FKO983058 FUK983058 GEG983058 GOC983058 GXY983058 HHU983058 HRQ983058 IBM983058 ILI983058 IVE983058 JFA983058 JOW983058 JYS983058 KIO983058 KSK983058 LCG983058 LMC983058 LVY983058 MFU983058 MPQ983058 MZM983058 NJI983058 NTE983058 ODA983058 OMW983058 OWS983058 PGO983058 PQK983058 QAG983058 QKC983058 QTY983058 RDU983058 RNQ983058 RXM983058 SHI983058 SRE983058 TBA983058 TKW983058 TUS983058 UEO983058 UOK983058 UYG983058 VIC983058 VRY983058 WBU983058 WLQ983058 WVM983058 E983055 E917519 E851983 E786447 E720911 E655375 E589839 E524303 E458767 E393231 E327695 E262159 E196623 E131087 E65551 C983055 C917519 C851983 C786447 C720911 C655375 C589839 C524303 C458767 C393231 C327695 C262159 C196623 C131087 C65551">
       <formula1>"1,2,3,4,5,6,7,8,9,10,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
